--- a/MPHGB06_coursework_part1/patient_data_graph.odt.xlsx
+++ b/MPHGB06_coursework_part1/patient_data_graph.odt.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23140" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="patient_data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="patient_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -22,43 +24,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t xml:space="preserve">wm_over_gm</t>
+    <t>wm_over_gm</t>
   </si>
   <si>
-    <t xml:space="preserve">HC</t>
+    <t>HC</t>
   </si>
   <si>
-    <t xml:space="preserve">AD</t>
+    <t>AD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +53,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -78,49 +61,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -179,6 +131,14 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -186,10 +146,14 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -208,9 +172,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -230,13 +191,28 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.144581788388143"/>
+                  <c:y val="-0.446287483874365"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>patient_data!$A$2:$A$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.678697481390396</c:v>
@@ -299,7 +275,7 @@
                   <c:v>81.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.68</c:v>
+                  <c:v>75.68000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>71.8</c:v>
@@ -327,9 +303,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -339,7 +312,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -349,13 +322,28 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.26078626040356"/>
+                  <c:y val="0.250389977095016"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>patient_data!$A$13:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.814937674583251</c:v>
@@ -400,13 +388,13 @@
                   <c:v>69.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>65.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80.12</c:v>
@@ -415,7 +403,7 @@
                   <c:v>71.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>64.31</c:v>
@@ -431,13 +419,22 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19622194"/>
-        <c:axId val="21014649"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2111607592"/>
+        <c:axId val="-2110916552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19622194"/>
+        <c:axId val="-2111607592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -448,37 +445,39 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21014649"/>
+        <c:crossAx val="-2110916552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21014649"/>
+        <c:axId val="-2110916552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="60"/>
+          <c:min val="60.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -486,7 +485,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -498,43 +497,46 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19622194"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-2111607592"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -545,20 +547,26 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -567,19 +575,19 @@
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>503640</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3202560" y="344160"/>
-        <a:ext cx="5762160" cy="3241800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -592,269 +600,587 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.06632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0.678697481390396</v>
-      </c>
-      <c r="B2" s="0" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0.67869748139039598</v>
+      </c>
+      <c r="B2">
         <v>78.47</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>0.709144226812569</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>71.82</v>
-      </c>
-      <c r="C3" s="0" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>0.70914422681256895</v>
+      </c>
+      <c r="B3">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>0.674032824643156</v>
-      </c>
-      <c r="B4" s="0" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>0.67403282464315595</v>
+      </c>
+      <c r="B4">
         <v>73.05</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0.674260720246764</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>77.21</v>
-      </c>
-      <c r="C5" s="0" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>0.67426072024676398</v>
+      </c>
+      <c r="B5">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>0.649930000403932</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>0.64993000040393201</v>
+      </c>
+      <c r="B6">
         <v>82.38</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>0.683377943831348</v>
-      </c>
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>0.68337794383134798</v>
+      </c>
+      <c r="B7">
         <v>76.16</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>0.650585804953279</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>81.89</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>0.699370625298441</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>75.68</v>
-      </c>
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>0.69937062529844096</v>
+      </c>
+      <c r="B9">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>0.688266949592416</v>
-      </c>
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>0.68826694959241597</v>
+      </c>
+      <c r="B10">
         <v>71.8</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>0.671085684407739</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>72.93</v>
-      </c>
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>0.67108568440773897</v>
+      </c>
+      <c r="B11">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>0.814937674583251</v>
-      </c>
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>0.81493767458325095</v>
+      </c>
+      <c r="B13">
         <v>69.42</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>0.737141432454157</v>
-      </c>
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>0.73714143245415698</v>
+      </c>
+      <c r="B14">
         <v>73</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>0.863559914155226</v>
-      </c>
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>0.86355991415522604</v>
+      </c>
+      <c r="B15">
         <v>65.94</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>0.842797466584449</v>
-      </c>
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>0.84279746658444898</v>
+      </c>
+      <c r="B16">
         <v>74</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
         <v>0.814934838677985</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>80.12</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>0.866491392209686</v>
-      </c>
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>0.86649139220968596</v>
+      </c>
+      <c r="B18">
         <v>71.22</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>0.726565531382499</v>
-      </c>
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>0.72656553138249902</v>
+      </c>
+      <c r="B19">
         <v>76</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>0.703916136981929</v>
-      </c>
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>0.70391613698192901</v>
+      </c>
+      <c r="B20">
         <v>64.31</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>0.900474577156048</v>
-      </c>
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>0.90047457715604795</v>
+      </c>
+      <c r="B21">
         <v>85.08</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>0.854364221679514</v>
-      </c>
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>0.85436422167951398</v>
+      </c>
+      <c r="B22">
         <v>71.27</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>